--- a/Strooptask/features_output.xlsx
+++ b/Strooptask/features_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,39 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>202409110959</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ttesf1204</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.723042247553857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>342</v>
+      </c>
+      <c r="E2" t="n">
+        <v>246.625</v>
+      </c>
+      <c r="F2" t="n">
+        <v>150.7142857142857</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Strooptask/features_output.xlsx
+++ b/Strooptask/features_output.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>msid</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>msid</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -483,13 +483,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>202409110959</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>ttesf1204</t>
         </is>
+      </c>
+      <c r="B2" t="n">
+        <v>202409110959</v>
       </c>
       <c r="C2" t="n">
         <v>1.723042247553857</v>

--- a/Strooptask/features_output.xlsx
+++ b/Strooptask/features_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,161 @@
         <v>0.4375</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mstest2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>202409131653</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.029258390391089</v>
+      </c>
+      <c r="D3" t="n">
+        <v>543.9230769230769</v>
+      </c>
+      <c r="E3" t="n">
+        <v>432.4375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>632.6153846153846</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>msb</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>202409131723</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.157637512656682</v>
+      </c>
+      <c r="D4" t="n">
+        <v>542.8125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F4" t="n">
+        <v>535.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ms1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>202409191311</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.095415700164438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>574.125</v>
+      </c>
+      <c r="E5" t="n">
+        <v>458.375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>616.5333333333333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ms2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>202409191313</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5429649674768424</v>
+      </c>
+      <c r="D6" t="n">
+        <v>682</v>
+      </c>
+      <c r="E6" t="n">
+        <v>811.3333333333334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>555.7142857142857</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ms3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>202409191316</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.329924508185077</v>
+      </c>
+      <c r="D7" t="n">
+        <v>449.2857142857143</v>
+      </c>
+      <c r="E7" t="n">
+        <v>438.7333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>515.9375</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Strooptask/features_output.xlsx
+++ b/Strooptask/features_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,235 +434,253 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>msid</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>total_score</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>netural_rt</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>congruent_rt</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>incongruent_rt</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>netural_acc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>congruent_acc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>incongruent_acc</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ttesf1204</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>202409110959</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.723042247553857</v>
-      </c>
       <c r="D2" t="n">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="E2" t="n">
         <v>342</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>246.625</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>150.7142857142857</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.5625</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.5</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>mstest2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>202409131653</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.029258390391089</v>
-      </c>
       <c r="D3" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="E3" t="n">
         <v>543.9230769230769</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>432.4375</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>632.6153846153846</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.8125</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.8125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>msb</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>202409131723</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.157637512656682</v>
-      </c>
       <c r="D4" t="n">
+        <v>0.2555555555555555</v>
+      </c>
+      <c r="E4" t="n">
         <v>542.8125</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>500</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>535.4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9375</v>
       </c>
       <c r="I4" t="n">
         <v>0.9375</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>ms1</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>202409191311</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.095415700164438</v>
-      </c>
       <c r="D5" t="n">
+        <v>0.2527777777777778</v>
+      </c>
+      <c r="E5" t="n">
         <v>574.125</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>458.375</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>616.5333333333333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.9375</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>ms2</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>202409191313</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.5429649674768424</v>
-      </c>
       <c r="D6" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E6" t="n">
         <v>682</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>811.3333333333334</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>555.7142857142857</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9375</v>
       </c>
       <c r="H6" t="n">
         <v>0.9375</v>
       </c>
       <c r="I6" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.875</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>ms3</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>202409191316</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.329924508185077</v>
-      </c>
       <c r="D7" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E7" t="n">
         <v>449.2857142857143</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>438.7333333333333</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>515.9375</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.875</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.9375</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
     </row>
